--- a/Documents/UserStory_Cabannes.xlsx
+++ b/Documents/UserStory_Cabannes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1140" yWindow="-135" windowWidth="20370" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Connexion a la base de donnée</t>
   </si>
@@ -27,18 +27,12 @@
     <t>Mathieu geinoz (Scrum Master)</t>
   </si>
   <si>
-    <t>Lucovic Gindre</t>
-  </si>
-  <si>
     <t>Robin Plojoux</t>
   </si>
   <si>
     <t>Cedric Dos Reis (Product Owner)</t>
   </si>
   <si>
-    <t>Julien Arrondel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Story Points : </t>
   </si>
   <si>
@@ -166,6 +160,21 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, je veux pouvoir créer une cabane sur une nouvelle fenetre accessible depuis le menu en US002 Toutes les inofrmations sont obligatoire</t>
+  </si>
+  <si>
+    <t>Ludovic Gindre</t>
+  </si>
+  <si>
+    <t>Julien Arondel</t>
+  </si>
+  <si>
+    <t>Story Points : 2100</t>
+  </si>
+  <si>
+    <t>Story Points : 500</t>
+  </si>
+  <si>
+    <t>Story Points : 1300</t>
   </si>
 </sst>
 </file>
@@ -619,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +658,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -660,7 +669,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -671,7 +680,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -682,7 +691,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -691,226 +700,226 @@
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="6"/>
@@ -918,15 +927,15 @@
     <row r="27" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
